--- a/2_A2_immigrants_emigrants_by_age_ML_regr.xlsx
+++ b/2_A2_immigrants_emigrants_by_age_ML_regr.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BCN\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -103,8 +108,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,10 +161,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -167,6 +176,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -213,7 +230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,9 +262,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,6 +297,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -454,14 +473,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,11 +513,11 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
@@ -516,11 +542,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
@@ -545,11 +571,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
@@ -574,11 +600,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -600,14 +626,14 @@
         <v>125.83</v>
       </c>
       <c r="I5">
-        <v>128.33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>128.33000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
@@ -632,11 +658,11 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
@@ -661,11 +687,11 @@
         <v>275.67</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
@@ -690,11 +716,11 @@
         <v>224.33</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
@@ -713,17 +739,17 @@
         <v>703.67</v>
       </c>
       <c r="H9">
-        <v>649.17</v>
+        <v>649.16999999999996</v>
       </c>
       <c r="I9">
-        <v>594.67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>594.66999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
@@ -748,11 +774,11 @@
         <v>464</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
@@ -771,17 +797,17 @@
         <v>680.67</v>
       </c>
       <c r="H11">
-        <v>611.67</v>
+        <v>611.66999999999996</v>
       </c>
       <c r="I11">
-        <v>542.67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>542.66999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
@@ -797,20 +823,20 @@
         <v>596</v>
       </c>
       <c r="G12">
-        <v>588.33</v>
+        <v>588.33000000000004</v>
       </c>
       <c r="H12">
-        <v>581.83</v>
+        <v>581.83000000000004</v>
       </c>
       <c r="I12">
-        <v>575.33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>575.33000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
@@ -829,17 +855,17 @@
         <v>664.33</v>
       </c>
       <c r="H13">
-        <v>637.83</v>
+        <v>637.83000000000004</v>
       </c>
       <c r="I13">
-        <v>611.33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>611.33000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
@@ -864,11 +890,11 @@
         <v>920.67</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C15" t="s">
@@ -893,11 +919,11 @@
         <v>1265.67</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C16" t="s">
@@ -922,11 +948,11 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C17" t="s">
@@ -951,11 +977,11 @@
         <v>1529.33</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C18" t="s">
@@ -980,11 +1006,11 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C19" t="s">
@@ -1009,11 +1035,11 @@
         <v>1718.67</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C20" t="s">
@@ -1038,11 +1064,11 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C21" t="s">
@@ -1067,11 +1093,11 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C22" t="s">
@@ -1086,21 +1112,21 @@
       <c r="F22">
         <v>3516</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <v>3366.67</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="2">
         <v>3384.17</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="2">
         <v>3401.67</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C23" t="s">
@@ -1115,21 +1141,21 @@
       <c r="F23">
         <v>2619</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="2">
         <v>2569.67</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="2">
         <v>2601.67</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="2">
         <v>2633.67</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C24" t="s">
@@ -1144,21 +1170,21 @@
       <c r="F24">
         <v>4565</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="2">
         <v>4259.33</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="2">
         <v>4164.83</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="2">
         <v>4070.33</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C25" t="s">
@@ -1173,21 +1199,21 @@
       <c r="F25">
         <v>3314</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="2">
         <v>3251.33</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="2">
         <v>3211.83</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="2">
         <v>3172.33</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C26" t="s">
@@ -1202,21 +1228,21 @@
       <c r="F26">
         <v>6846</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="2">
         <v>6542.67</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="2">
         <v>6518.17</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="2">
         <v>6493.67</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C27" t="s">
@@ -1231,21 +1257,21 @@
       <c r="F27">
         <v>5041</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="2">
         <v>4726</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="2">
         <v>4534.5</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="2">
         <v>4343</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C28" t="s">
@@ -1260,21 +1286,21 @@
       <c r="F28">
         <v>10265</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="2">
         <v>9905.67</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="2">
         <v>9893.17</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="2">
         <v>9880.67</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C29" t="s">
@@ -1289,21 +1315,21 @@
       <c r="F29">
         <v>6839</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="2">
         <v>6288.67</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="2">
         <v>5931.17</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="2">
         <v>5573.67</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C30" t="s">
@@ -1318,21 +1344,21 @@
       <c r="F30">
         <v>15602</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="2">
         <v>15616.67</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="2">
         <v>16152.17</v>
       </c>
-      <c r="I30">
-        <v>16687.67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="I30" s="2">
+        <v>16687.669999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C31" t="s">
@@ -1347,21 +1373,21 @@
       <c r="F31">
         <v>7757</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="2">
         <v>7263</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="2">
         <v>6935.5</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="2">
         <v>6608</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C32" t="s">
@@ -1376,21 +1402,21 @@
       <c r="F32">
         <v>21319</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="2">
         <v>22570.67</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="2">
         <v>24421.17</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="2">
         <v>26271.67</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C33" t="s">
@@ -1405,21 +1431,21 @@
       <c r="F33">
         <v>6619</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="2">
         <v>6546.33</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="2">
         <v>6590.33</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="2">
         <v>6634.33</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C34" t="s">
@@ -1434,21 +1460,21 @@
       <c r="F34">
         <v>12911</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="2">
         <v>14008</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="2">
         <v>15332</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="2">
         <v>16656</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C35" t="s">
@@ -1463,21 +1489,21 @@
       <c r="F35">
         <v>3422</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="2">
         <v>3466.67</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="2">
         <v>3563.67</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="2">
         <v>3660.67</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C36" t="s">
@@ -1492,21 +1518,21 @@
       <c r="F36">
         <v>4545</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="2">
         <v>4999</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="2">
         <v>5439.5</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="2">
         <v>5880</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C37" t="s">
@@ -1521,21 +1547,21 @@
       <c r="F37">
         <v>1710</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="2">
         <v>1737</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="2">
         <v>1788</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="2">
         <v>1839</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C38" t="s">
@@ -1550,21 +1576,21 @@
       <c r="F38">
         <v>2630</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="2">
         <v>2665</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="2">
         <v>2685</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="2">
         <v>2705</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C39" t="s">
@@ -1579,21 +1605,21 @@
       <c r="F39">
         <v>1480</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="2">
         <v>1442.67</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="2">
         <v>1426.17</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="2">
         <v>1409.67</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C40" t="s">
@@ -1608,21 +1634,21 @@
       <c r="F40">
         <v>2684</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="2">
         <v>2647</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="2">
         <v>2627.5</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="2">
         <v>2608</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C41" t="s">
@@ -1637,21 +1663,21 @@
       <c r="F41">
         <v>1845</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="2">
         <v>1663.67</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="2">
         <v>1532.17</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="2">
         <v>1400.67</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C42" t="s">
@@ -1666,21 +1692,21 @@
       <c r="F42">
         <v>3868</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="2">
         <v>4043</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="2">
         <v>4197.5</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="2">
         <v>4352</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C43" t="s">
@@ -1695,17 +1721,18 @@
       <c r="F43">
         <v>3111</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="2">
         <v>3189.33</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="2">
         <v>3329.83</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="2">
         <v>3470.33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>